--- a/Question_Set2/Role-specific skills/Technical Support Help Desk Representative.xlsx
+++ b/Question_Set2/Role-specific skills/Technical Support Help Desk Representative.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You have shared the wireless password with a vendor who is visiting your office. You can connect using the same password. However, despite using the correct password, the vendor cannot connect to the wireless network. What could be the cause?', 'ques_type': 2, 'options': ['IP pool is exhausted', 'MAC filtering is enabled', 'The wrong SSID is being used', 'Access control list is denying access'], 'score': 'MAC filtering is enabled'}, {'title': 'You manage a small Windows 2019 network that has a DHCP server running. One of the Windows clients has been using the DHCP server. One of the Windows clients is not able to connect with the DHCP server. Which IP address is the client likely to use in this scenario?', 'ques_type': 2, 'options': ['It will use an APIPA IP address', 'It will use the default gateway’s IP address', 'It will use the loopback IP address', 'It will use a broadcast IP address'], 'score': 'It will use an APIPA IP address'}, {'title': 'You have been asked to implement a wireless network in your organization. To do this successfully, you decide to perform a site survey to determine the number of wireless access points and locate the blind spots in your office. Which of the following tasks should you perform first for the site survey?', 'ques_type': 2, 'options': ['Take a physical tour of the office', 'Request the physical map of the office', 'Perform an existing network assessment', 'Understand the wireless network requirements'], 'score': 'Understand the wireless network requirements'}, {'title': 'An internet-facing Linux server is being managed using Telnet by the network administrator. During an audit, it has been flagged as a nonconformity. You are responsible for recommending a different protocol to encrypt the traffic. Which of the following should you recommend?', 'ques_type': 2, 'options': ['RDP', 'SSH', 'SNMP', 'SMTP'], 'score': 'SSH'}]</t>
+    <t>questions = [
+    {
+        "title": "You have shared the wireless password with a vendor who is visiting your office. You can connect using the same password. However, despite using the correct password, the vendor cannot connect to the wireless network. What could be the cause?",
+        "ques_type": 2,
+        "options": [
+            "IP pool is exhausted",
+            "MAC filtering is enabled",
+            "The wrong SSID is being used",
+            "Access control list is denying access"
+        ],
+        "score": "MAC filtering is enabled"
+    },
+    {
+        "title": "You manage a small Windows 2019 network that has a DHCP server running. One of the Windows clients has been using the DHCP server. One of the Windows clients is not able to connect with the DHCP server. Which IP address is the client likely to use in this scenario?",
+        "ques_type": 2,
+        "options": [
+            "It will use an APIPA IP address",
+            "It will use the default gateway\u2019s IP address",
+            "It will use the loopback IP address",
+            "It will use a broadcast IP address"
+        ],
+        "score": "It will use an APIPA IP address"
+    },
+    {
+        "title": "You have been asked to implement a wireless network in your organization. To do this successfully, you decide to perform a site survey to determine the number of wireless access points and locate the blind spots in your office. Which of the following tasks should you perform first for the site survey?",
+        "ques_type": 2,
+        "options": [
+            "Take a physical tour of the office",
+            "Request the physical map of the office",
+            "Perform an existing network assessment",
+            "Understand the wireless network requirements"
+        ],
+        "score": "Understand the wireless network requirements"
+    },
+    {
+        "title": "An internet-facing Linux server is being managed using Telnet by the network administrator. During an audit, it has been flagged as a nonconformity. You are responsible for recommending a different protocol to encrypt the traffic. Which of the following should you recommend?",
+        "ques_type": 2,
+        "options": [
+            "RDP",
+            "SSH",
+            "SNMP",
+            "SMTP"
+        ],
+        "score": "SSH"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
